--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242289.187350424</v>
+        <v>239590.135256516</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>153.8072380324132</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.9311922907016</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>139.1009717695446</v>
+        <v>127.2378420788156</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>24.10201396370027</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>280.9626402650324</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1217610028605</v>
+        <v>12.12176100286048</v>
       </c>
       <c r="H5" t="n">
         <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094063</v>
+        <v>87.8412925809406</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127886</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>356.4313017624457</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>98.67293060369241</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.85454376352014</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841049</v>
+        <v>95.79797317841047</v>
       </c>
       <c r="I6" t="n">
-        <v>30.7980189522439</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.0697787646035</v>
       </c>
       <c r="T6" t="n">
         <v>193.3045852332498</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8294102072821</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>70.53430878375075</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>62.15292944616323</v>
+        <v>149.5409427785072</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5404054555728</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.1358328502783</v>
       </c>
       <c r="S7" t="n">
-        <v>199.15003117566</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.8489350595717</v>
       </c>
       <c r="U7" t="n">
         <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>35.95245435214135</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>349.5829604951043</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8.906162259192037</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,16 +1345,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>145.776583679784</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.3998342615313</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>243.6085428224672</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>24.14662204184535</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615199</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544491</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812548</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.4884770553078</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.6502311075612</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.3727437317417</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>79.81330679905228</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.05706037504692</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206802</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428141</v>
       </c>
       <c r="G16" t="n">
-        <v>80.07147829118306</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>120.7871326503936</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>14.76058440587583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365942</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.974274198336</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>27.34574348918461</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>33.26272630933867</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>1.207068174442684</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>137.3676443337302</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>18.16423677622339</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>35.99871774582718</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>61.44013021076709</v>
+        <v>4.019807611472316</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>35.55160172423427</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833818</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880068</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>14.76058440587543</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.7826784871775</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="C2" t="n">
-        <v>359.7826784871775</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="D2" t="n">
-        <v>359.7826784871775</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="E2" t="n">
-        <v>359.7826784871775</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="F2" t="n">
-        <v>170.3628934706927</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201472</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201472</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036623</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036623</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036623</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036623</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871775</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871775</v>
+        <v>211.3673327389938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>458.313241129427</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="C3" t="n">
-        <v>458.313241129427</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140242</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198761</v>
+        <v>571.6362168389237</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198761</v>
+        <v>571.6362168389237</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198761</v>
+        <v>571.6362168389237</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198761</v>
+        <v>382.216431822439</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198761</v>
+        <v>192.7966468059543</v>
       </c>
       <c r="X3" t="n">
-        <v>598.8192732198761</v>
+        <v>192.7966468059543</v>
       </c>
       <c r="Y3" t="n">
-        <v>458.313241129427</v>
+        <v>64.27357399906981</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.891994471216</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>161.891994471216</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>161.891994471216</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>161.891994471216</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>89.66773767220369</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>262.5553157873387</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340728</v>
+        <v>448.2056470819953</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287296</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652798</v>
+        <v>634.3723839608016</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R4" t="n">
-        <v>722.3800293344252</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S4" t="n">
-        <v>722.3800293344252</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T4" t="n">
-        <v>722.3800293344252</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U4" t="n">
-        <v>532.9602443179405</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V4" t="n">
-        <v>532.9602443179405</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W4" t="n">
-        <v>532.9602443179405</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X4" t="n">
-        <v>343.5404593014557</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.5404593014557</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.111348089189</v>
+        <v>813.7477433249348</v>
       </c>
       <c r="C5" t="n">
-        <v>1245.310701356833</v>
+        <v>813.7477433249348</v>
       </c>
       <c r="D5" t="n">
-        <v>1245.310701356833</v>
+        <v>455.4820447181844</v>
       </c>
       <c r="E5" t="n">
-        <v>859.5224487585884</v>
+        <v>455.4820447181844</v>
       </c>
       <c r="F5" t="n">
-        <v>852.576948009385</v>
+        <v>448.5365439689809</v>
       </c>
       <c r="G5" t="n">
         <v>436.2923409357885</v>
@@ -4565,52 +4565,52 @@
         <v>37.56616013742899</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620865</v>
+        <v>125.6123058620867</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405693</v>
+        <v>308.3091729405696</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714427</v>
+        <v>571.8625535714432</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672651</v>
+        <v>896.7859082672653</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917807</v>
+        <v>1231.580670917808</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379514</v>
+        <v>1534.382610379515</v>
       </c>
       <c r="P5" t="n">
         <v>1758.316059280663</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871449</v>
+        <v>1878.30800687145</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871449</v>
+        <v>1878.30800687145</v>
       </c>
       <c r="S5" t="n">
-        <v>1740.395312616107</v>
+        <v>1878.30800687145</v>
       </c>
       <c r="T5" t="n">
-        <v>1529.111348089189</v>
+        <v>1878.30800687145</v>
       </c>
       <c r="U5" t="n">
-        <v>1529.111348089189</v>
+        <v>1878.30800687145</v>
       </c>
       <c r="V5" t="n">
-        <v>1529.111348089189</v>
+        <v>1547.245119527879</v>
       </c>
       <c r="W5" t="n">
-        <v>1529.111348089189</v>
+        <v>1547.245119527879</v>
       </c>
       <c r="X5" t="n">
-        <v>1529.111348089189</v>
+        <v>1173.779361266799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1529.111348089189</v>
+        <v>813.7477433249348</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.6857493252207</v>
+        <v>308.7848188916979</v>
       </c>
       <c r="C6" t="n">
-        <v>643.2327200440938</v>
+        <v>134.3317896105709</v>
       </c>
       <c r="D6" t="n">
-        <v>494.2983103828425</v>
+        <v>134.3317896105709</v>
       </c>
       <c r="E6" t="n">
-        <v>335.060855377387</v>
+        <v>134.3317896105709</v>
       </c>
       <c r="F6" t="n">
-        <v>188.526297404272</v>
+        <v>134.3317896105709</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4408996633425</v>
+        <v>134.3317896105709</v>
       </c>
       <c r="H6" t="n">
-        <v>68.67527019020061</v>
+        <v>37.56616013742899</v>
       </c>
       <c r="I6" t="n">
         <v>37.56616013742899</v>
       </c>
       <c r="J6" t="n">
-        <v>71.18799439755966</v>
+        <v>71.18799439755969</v>
       </c>
       <c r="K6" t="n">
-        <v>468.6284737224706</v>
+        <v>468.6284737224707</v>
       </c>
       <c r="L6" t="n">
-        <v>697.3086998127117</v>
+        <v>697.3086998127119</v>
       </c>
       <c r="M6" t="n">
-        <v>983.5246056828519</v>
+        <v>983.5246056828523</v>
       </c>
       <c r="N6" t="n">
-        <v>1291.724439835114</v>
+        <v>1352.966969211395</v>
       </c>
       <c r="O6" t="n">
-        <v>1551.447281160777</v>
+        <v>1612.689810537058</v>
       </c>
       <c r="P6" t="n">
-        <v>1740.564692651506</v>
+        <v>1801.807222027788</v>
       </c>
       <c r="Q6" t="n">
-        <v>1872.849388978986</v>
+        <v>1878.30800687145</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871449</v>
+        <v>1878.30800687145</v>
       </c>
       <c r="S6" t="n">
-        <v>1878.308006871449</v>
+        <v>1736.823381856699</v>
       </c>
       <c r="T6" t="n">
-        <v>1683.050850070187</v>
+        <v>1541.566225055436</v>
       </c>
       <c r="U6" t="n">
-        <v>1683.050850070187</v>
+        <v>1313.455709694545</v>
       </c>
       <c r="V6" t="n">
-        <v>1447.898741838444</v>
+        <v>1078.303601462803</v>
       </c>
       <c r="W6" t="n">
-        <v>1193.661385110243</v>
+        <v>824.0662447346012</v>
       </c>
       <c r="X6" t="n">
-        <v>1193.661385110243</v>
+        <v>616.2147445290684</v>
       </c>
       <c r="Y6" t="n">
-        <v>985.9010863452888</v>
+        <v>408.4544457641145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.0967730943735</v>
+        <v>259.8643940386996</v>
       </c>
       <c r="C7" t="n">
-        <v>529.1605901664666</v>
+        <v>259.8643940386996</v>
       </c>
       <c r="D7" t="n">
-        <v>529.1605901664666</v>
+        <v>188.6176174894564</v>
       </c>
       <c r="E7" t="n">
-        <v>529.1605901664666</v>
+        <v>188.6176174894564</v>
       </c>
       <c r="F7" t="n">
-        <v>382.2706426685562</v>
+        <v>188.6176174894564</v>
       </c>
       <c r="G7" t="n">
-        <v>214.0240741795866</v>
+        <v>188.6176174894564</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2433373652804</v>
+        <v>37.56616013742899</v>
       </c>
       <c r="I7" t="n">
         <v>37.56616013742899</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256522</v>
+        <v>45.01194249256525</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696021</v>
+        <v>187.0844868696022</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101277</v>
+        <v>424.4148644101279</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467481</v>
+        <v>685.0355944467483</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609245</v>
+        <v>944.8939624609249</v>
       </c>
       <c r="O7" t="n">
         <v>1168.898929103172</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.053193890528</v>
+        <v>1337.053193890529</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552807</v>
+        <v>1370.039410552808</v>
       </c>
       <c r="R7" t="n">
-        <v>1370.039410552807</v>
+        <v>1255.760791512123</v>
       </c>
       <c r="S7" t="n">
-        <v>1168.877762900625</v>
+        <v>1255.760791512123</v>
       </c>
       <c r="T7" t="n">
-        <v>1168.877762900625</v>
+        <v>1031.670958118616</v>
       </c>
       <c r="U7" t="n">
-        <v>879.7452379246132</v>
+        <v>742.5384331426038</v>
       </c>
       <c r="V7" t="n">
-        <v>879.7452379246132</v>
+        <v>487.853944936717</v>
       </c>
       <c r="W7" t="n">
-        <v>879.7452379246132</v>
+        <v>487.853944936717</v>
       </c>
       <c r="X7" t="n">
-        <v>879.7452379246132</v>
+        <v>259.8643940386996</v>
       </c>
       <c r="Y7" t="n">
-        <v>879.7452379246132</v>
+        <v>259.8643940386996</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1488.368453810658</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C8" t="n">
-        <v>1119.405936870247</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D8" t="n">
-        <v>1119.405936870247</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.405936870247</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>708.4200320806392</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.50778578647</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1488.368453810658</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1357.685180822783</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>366.1231987576349</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>366.1231987576349</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4960,52 +4960,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1069.589817005069</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>814.9053287991824</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>814.9053287991824</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>586.915777901165</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>366.1231987576349</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1875.629661109387</v>
+        <v>1872.090169197701</v>
       </c>
       <c r="C11" t="n">
-        <v>1506.667144168975</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1148.401445562225</v>
+        <v>1195.238779417686</v>
       </c>
       <c r="E11" t="n">
-        <v>762.6131929639805</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="F11" t="n">
-        <v>762.6131929639804</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="G11" t="n">
-        <v>347.9974284051259</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656971</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.830004625332</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.956123087834</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484045</v>
+        <v>2455.600890484046</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535299</v>
+        <v>3033.988513535301</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.12796748</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464064</v>
+        <v>3789.749829464068</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796044</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345381</v>
+        <v>3776.999350345385</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926745</v>
+        <v>3573.020743926749</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048274</v>
+        <v>3319.526802048278</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704703</v>
+        <v>2988.463914704706</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434588</v>
+        <v>2635.695259434592</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173509</v>
+        <v>2262.229501173512</v>
       </c>
       <c r="Y11" t="n">
-        <v>2262.229501173509</v>
+        <v>1872.090169197701</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390854</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870417</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870415</v>
+        <v>470.7769964046664</v>
       </c>
       <c r="L12" t="n">
-        <v>612.5381326449935</v>
+        <v>889.4740370626187</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.494698601522</v>
+        <v>996.4574081599327</v>
       </c>
       <c r="N12" t="n">
-        <v>1656.304008302733</v>
+        <v>1532.266717861143</v>
       </c>
       <c r="O12" t="n">
-        <v>2124.245052635256</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2480.475928880031</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
         <v>2544.650348868987</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.876289255607</v>
+        <v>374.5442528261669</v>
       </c>
       <c r="C13" t="n">
-        <v>518.9401063277002</v>
+        <v>374.5442528261669</v>
       </c>
       <c r="D13" t="n">
-        <v>368.8234669153644</v>
+        <v>224.4276134138312</v>
       </c>
       <c r="E13" t="n">
-        <v>368.8234669153644</v>
+        <v>224.4276134138312</v>
       </c>
       <c r="F13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758655</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648149</v>
+        <v>364.1690246648154</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344816</v>
+        <v>710.5788654344824</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376941</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.34130633695</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818667</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010725</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742811</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2056.743466925586</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458881</v>
+        <v>1868.627619458882</v>
       </c>
       <c r="T13" t="n">
-        <v>1868.627619458881</v>
+        <v>1647.736286893322</v>
       </c>
       <c r="U13" t="n">
-        <v>1579.535926408332</v>
+        <v>1358.644593842774</v>
       </c>
       <c r="V13" t="n">
-        <v>1324.851438202445</v>
+        <v>1103.960105636887</v>
       </c>
       <c r="W13" t="n">
-        <v>1035.434268165485</v>
+        <v>814.5429355999261</v>
       </c>
       <c r="X13" t="n">
-        <v>807.4447172674672</v>
+        <v>586.5533847019087</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.4447172674672</v>
+        <v>556.1927176564067</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703114</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579756</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E16" t="n">
-        <v>545.3854261579756</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F16" t="n">
-        <v>398.4954786600653</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.0191461778176</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X19" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y19" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400691</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998264</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998264</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797722</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1949.83911739012</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138389</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703088</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,10 +6072,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511908</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232839</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232839</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408908</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2230.509535791388</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1941.434309135586</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>948.5505208511908</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="26">
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,25 +6303,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>315.9123021921482</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2445.743822797995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2226.142357820936</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1392.965472922286</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,28 +6461,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263196</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C31" t="n">
-        <v>680.4481746984127</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860769</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036838</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535067</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.825401600089</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6698,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,19 +6780,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.5811134804958</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>615.6449305525889</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402531</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E34" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>966.2295783107355</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876692</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557706</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557706</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578603</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038341</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179089</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7731,19 +7731,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.0191461778176</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1418.449741049604</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>89.52419948887511</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>107.2331895657666</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496481</v>
+        <v>15.76852197496476</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>61.86114078412174</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.34738533718973</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>40.00791436438845</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14.25823202432809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.87305750947627</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>46.36896051690751</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.4592364501956</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>90.25352389927367</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>188.5275929770479</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909865907</v>
       </c>
       <c r="G16" t="n">
-        <v>85.45266000108579</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823427</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>271.4238899833683</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459524</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>258.8387309000595</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>184.1427240179496</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294997</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>179.8192178272019</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>114.7699989900978</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823082</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>268.0202376130208</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>87.17534280744528</v>
+        <v>144.59566540674</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>131.6952193743936</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>965174.8408219743</v>
+        <v>965174.8408219748</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1062099.402862267</v>
+        <v>1062099.402862266</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26320,40 @@
         <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234786</v>
+        <v>329665.1599234785</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="I2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="J2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="K2" t="n">
         <v>363215.9698605029</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="M2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="J2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605029</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363215.9698605028</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="P2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363215.9698605029</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912879</v>
+        <v>312214.8578912884</v>
       </c>
       <c r="D3" t="n">
         <v>175413.4991972666</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545784</v>
+        <v>313577.1573545788</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770428</v>
+        <v>189308.2687704269</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030137</v>
+        <v>72591.00846030143</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925541</v>
+        <v>43280.54279925538</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.403712731</v>
+        <v>81897.40371273126</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202344</v>
+        <v>49839.57413202302</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>13501.3895521962</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="H4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
@@ -26442,19 +26442,19 @@
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184277</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638293</v>
+        <v>79427.52208638295</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738574</v>
+        <v>85137.4850673858</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-556344.7549242446</v>
+        <v>-556344.7549242445</v>
       </c>
       <c r="C6" t="n">
-        <v>-216285.3206790905</v>
+        <v>-216285.3206790909</v>
       </c>
       <c r="D6" t="n">
-        <v>-44037.70589612241</v>
+        <v>-44037.70589612232</v>
       </c>
       <c r="E6" t="n">
-        <v>-82550.87205068176</v>
+        <v>-82772.00336465707</v>
       </c>
       <c r="F6" t="n">
-        <v>59178.36315432492</v>
+        <v>59143.62522889006</v>
       </c>
       <c r="G6" t="n">
-        <v>248486.6319247529</v>
+        <v>248451.8939993172</v>
       </c>
       <c r="H6" t="n">
-        <v>248486.631924753</v>
+        <v>248451.8939993169</v>
       </c>
       <c r="I6" t="n">
-        <v>248486.6319247528</v>
+        <v>248451.8939993172</v>
       </c>
       <c r="J6" t="n">
-        <v>199421.6871962081</v>
+        <v>199386.9492707724</v>
       </c>
       <c r="K6" t="n">
-        <v>175895.6234644513</v>
+        <v>175860.8855390159</v>
       </c>
       <c r="L6" t="n">
-        <v>205206.0891254976</v>
+        <v>205171.3512000616</v>
       </c>
       <c r="M6" t="n">
-        <v>166589.2282120219</v>
+        <v>166554.4902865859</v>
       </c>
       <c r="N6" t="n">
-        <v>198647.0577927294</v>
+        <v>198612.3198672942</v>
       </c>
       <c r="O6" t="n">
-        <v>248486.6319247529</v>
+        <v>248451.8939993169</v>
       </c>
       <c r="P6" t="n">
-        <v>248486.631924753</v>
+        <v>248451.8939993171</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282986</v>
+        <v>791.2679074282988</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.241237214952</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178623</v>
+        <v>469.5770017178625</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490099</v>
+        <v>969.2208239490109</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153939</v>
+        <v>242.7979665153944</v>
       </c>
       <c r="D3" t="n">
         <v>142.7969846892405</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974122</v>
+        <v>268.1763450974124</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267218</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515424</v>
+        <v>282.0514145515426</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821764</v>
+        <v>171.0078303821763</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489721</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506368</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515424</v>
+        <v>282.0514145515426</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821764</v>
+        <v>171.0078303821763</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489721</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506368</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515424</v>
+        <v>282.0514145515426</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821764</v>
+        <v>171.0078303821763</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489721</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506368</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>259.2905951976448</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27430,10 +27430,10 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988682</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871049</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.306746365352</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310543</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459977</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.58172400775979</v>
+        <v>78.44485369848871</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>108.7203556469901</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378025</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713032</v>
+        <v>121.0925443173558</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750816</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577495</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>84.31025150597515</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>136.5335673127886</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
         <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>29.80663689360784</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>67.86025304617493</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>112.7870009195617</v>
+        <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224388</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646035</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8294102072821</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>78.08116423446161</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
-        <v>87.38801333234395</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>112.5404054555728</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502783</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.15003117566</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595717</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>345.9779157201204</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>61.96474227784967</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>137.5278003873771</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>140.4505704414166</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.785611741273897e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-9.243166232408839e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-9.831888791845538e-13</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-9.83188879184554e-13</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274565</v>
+        <v>3.180976512274566</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633189</v>
+        <v>32.57717570633191</v>
       </c>
       <c r="I5" t="n">
         <v>122.6345969894653</v>
@@ -31288,34 +31288,34 @@
         <v>269.9814052586636</v>
       </c>
       <c r="K5" t="n">
-        <v>404.632141023246</v>
+        <v>404.6321410232461</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607688</v>
+        <v>501.981950960769</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109316</v>
+        <v>558.5516420109318</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264317</v>
+        <v>567.5895915264319</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325015</v>
+        <v>535.9587563325017</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857231</v>
+        <v>457.4283986857233</v>
       </c>
       <c r="Q5" t="n">
         <v>343.5096773398902</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391673</v>
+        <v>199.8170158391674</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345672</v>
+        <v>72.48650227345674</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248191</v>
+        <v>13.92472468248192</v>
       </c>
       <c r="U5" t="n">
         <v>0.2544781209819652</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128793</v>
+        <v>1.701972480128794</v>
       </c>
       <c r="H6" t="n">
         <v>16.43747105808598</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917118</v>
+        <v>58.5986138991712</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142734</v>
+        <v>160.7990754142735</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829025</v>
+        <v>274.8312315829027</v>
       </c>
       <c r="L6" t="n">
-        <v>369.544507143754</v>
+        <v>369.5445071437541</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484227</v>
+        <v>431.2410095484228</v>
       </c>
       <c r="N6" t="n">
-        <v>442.654675873497</v>
+        <v>442.6546758734971</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138011</v>
+        <v>404.9425488138012</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888044</v>
+        <v>325.0020957888045</v>
       </c>
       <c r="Q6" t="n">
         <v>217.2552941301246</v>
@@ -31391,10 +31391,10 @@
         <v>105.6715895995755</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923436</v>
+        <v>31.61339233923437</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571756</v>
+        <v>6.860143461571758</v>
       </c>
       <c r="U6" t="n">
         <v>0.1119718736926838</v>
@@ -31437,46 +31437,46 @@
         <v>1.426876554378899</v>
       </c>
       <c r="H7" t="n">
-        <v>12.6862297289324</v>
+        <v>12.68622972893241</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168545</v>
+        <v>42.91006947168546</v>
       </c>
       <c r="J7" t="n">
         <v>100.8801723945882</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087484</v>
+        <v>165.7771124087485</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210229</v>
+        <v>212.137628821023</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014123</v>
+        <v>223.6693857014124</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350911</v>
+        <v>218.3510276350912</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589375</v>
+        <v>201.6825151589376</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496078</v>
+        <v>172.5742334496079</v>
       </c>
       <c r="Q7" t="n">
         <v>119.4814540216731</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689121</v>
+        <v>64.15755852689122</v>
       </c>
       <c r="S7" t="n">
         <v>24.86656686131226</v>
       </c>
       <c r="T7" t="n">
-        <v>6.09665436870984</v>
+        <v>6.096654368709841</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884912</v>
+        <v>0.07782963023884915</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869149</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639243</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285606</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203921</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975133</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544664</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.6554437954568</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180176</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956812</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620366</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825975</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.5991401696632</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968221</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495319</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858576</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837098</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.0339029446922</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193139</v>
+        <v>244.315834819314</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598385</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>561.4806834747754</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821484</v>
+        <v>250.1980451314265</v>
       </c>
       <c r="N12" t="n">
-        <v>672.563237034051</v>
+        <v>672.5632370340512</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.263965992448</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383451</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.8044205395127</v>
+        <v>330.0946129047543</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605175</v>
+        <v>160.5559146605176</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627658</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868434</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535159</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.2752775409217</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.19695102798461</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085357</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329029</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100544</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770067</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.7594548531032</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.4335533806242</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493067</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194577</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.4800845781172</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.78190904493543</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377494</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473724</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>361.1081696176612</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.3323016788565</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913100002</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157999</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,19 +33023,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>360.3952288121461</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>467.1465236515248</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709964</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,22 +34451,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>75.41988959484657</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>123.3445726863781</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.9355007319773</v>
+        <v>88.93550073197736</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782654</v>
+        <v>184.5422899782656</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907816</v>
+        <v>266.2155359907817</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836589</v>
+        <v>328.2054087836591</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298408</v>
+        <v>338.176527929841</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108147</v>
+        <v>305.860544910815</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304536</v>
+        <v>226.1954029304537</v>
       </c>
       <c r="Q5" t="n">
         <v>121.2039874654407</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.96144874760674</v>
+        <v>33.96144874760677</v>
       </c>
       <c r="K6" t="n">
-        <v>401.4550296211222</v>
+        <v>401.4550296211223</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638798</v>
+        <v>230.9901273638799</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264043</v>
+        <v>289.1069756264045</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901637</v>
+        <v>373.1741045742856</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693566</v>
+        <v>262.3463043693567</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744742</v>
+        <v>191.0276883744743</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6209053812928</v>
+        <v>77.27352004410312</v>
       </c>
       <c r="R6" t="n">
-        <v>5.513755446932336</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915383</v>
+        <v>7.520992277915411</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828655</v>
+        <v>143.5076205828656</v>
       </c>
       <c r="L7" t="n">
-        <v>239.727654081339</v>
+        <v>239.7276540813391</v>
       </c>
       <c r="M7" t="n">
         <v>263.2532626632529</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143197</v>
+        <v>262.4832000143198</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729772</v>
+        <v>226.2676430729773</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145013</v>
+        <v>169.8527927145014</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.3194107699787</v>
+        <v>33.31941076997873</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>405.455331617202</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>546.4575832202785</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937058</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525327</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844792</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681841</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.9745125214267</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739945</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.777226206767</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.618042408148</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553108</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526472</v>
+        <v>117.4782081526473</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854795</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>422.9263036949013</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601301</v>
+        <v>108.0640112094081</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507177</v>
+        <v>541.2215249507179</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.6677215480036</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>359.8291679240148</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.8226464534912</v>
+        <v>190.1128388187328</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655356</v>
+        <v>14.87641069655362</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186293</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070201</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.9089300703706</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.4239696388473</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323318</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946638</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022142002</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776331</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>222.5537898377871</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552318</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655557</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324666</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191292</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36671,19 +36671,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>328.5921438716506</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876631</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
